--- a/KINX6AB2.xlsx
+++ b/KINX6AB2.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>TCP/IP (KINX6AB2)</t>
@@ -35,7 +35,7 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>dimanche</t>
+    <t>jeudi</t>
   </si>
   <si>
     <t>7:45</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">TCP/IP (KINX6AB2) </t>
   </si>
   <si>
-    <t>jeudi</t>
+    <t>lundi</t>
   </si>
   <si>
     <t>TCP/IP (KINX6AB2)    (TD)</t>
@@ -68,16 +68,16 @@
     <t>13:30</t>
   </si>
   <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>TCP/IP (KINX6AB2) /TP/GA</t>
+  </si>
+  <si>
+    <t>TCP/IP (KINX6AB2) /TP/GB</t>
+  </si>
+  <si>
     <t>vendredi</t>
-  </si>
-  <si>
-    <t>TCP/IP (KINX6AB2) /TP/GA</t>
-  </si>
-  <si>
-    <t>TCP/IP (KINX6AB2) /TP/GB</t>
-  </si>
-  <si>
-    <t>lundi</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44954.0</v>
+        <v>46050.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -171,7 +171,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -233,7 +233,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>7</v>
@@ -295,7 +295,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>44969.0</v>
+        <v>46065.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>7</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>44976.0</v>
+        <v>46072.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>7</v>
@@ -373,7 +373,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="1">
-        <v>44983.0</v>
+        <v>46079.0</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>7</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="1">
-        <v>44994.0</v>
+        <v>46090.0</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>13</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>7</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>45001.0</v>
+        <v>46097.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>13</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>7</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="1">
-        <v>45008.0</v>
+        <v>46104.0</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>13</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>45016.0</v>
+        <v>46112.0</v>
       </c>
       <c r="B35" t="s" s="0">
         <v>18</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>7</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="1">
-        <v>45019.0</v>
+        <v>46115.0</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>21</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="1">
-        <v>45023.0</v>
+        <v>46119.0</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>18</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="1">
-        <v>45024.0</v>
+        <v>46120.0</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>1</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="1">
-        <v>45026.0</v>
+        <v>46122.0</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>21</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n" s="1">
-        <v>45031.0</v>
+        <v>46127.0</v>
       </c>
       <c r="B58" t="s" s="0">
         <v>1</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="1">
-        <v>45033.0</v>
+        <v>46129.0</v>
       </c>
       <c r="B60" t="s" s="0">
         <v>21</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n" s="1">
-        <v>45052.0</v>
+        <v>46148.0</v>
       </c>
       <c r="B63" t="s" s="0">
         <v>1</v>
